--- a/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
+++ b/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
@@ -5,88 +5,49 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE52B3-BB3C-AB4C-A4F1-CE6448614485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413A9E6-ADA7-A74C-9845-4B03EDFB76CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="7560" windowWidth="27860" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$F$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$E$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$F$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet!$G$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet!$E$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet!$F$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet!$G$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet!$E$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet!$F$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet!$G$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$24:$A$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$24:$A$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$24:$B$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$13:$A$18</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$13:$B$18</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$13:$C$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$24:$B$29</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$24:$A$29</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$24:$B$29</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$C$24:$C$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Winking</t>
   </si>
@@ -94,7 +55,13 @@
     <t>Double-blinking</t>
   </si>
   <si>
-    <t>Pilot Study 1</t>
+    <t>FAI</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>NASA</t>
   </si>
 </sst>
 </file>
@@ -179,18 +146,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -200,7 +167,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Winking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -212,7 +179,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.37</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>Double-blinking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -256,7 +223,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="200" min="0"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -274,7 +241,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -284,7 +251,29 @@
                   </a:rPr>
                   <a:t>Completion Time</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -296,6 +285,121 @@
             </cx:rich>
           </cx:tx>
         </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2500" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Winking</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Double-blinking</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -327,18 +431,91 @@
           </a:p>
         </cx:txPr>
       </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>FAI</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="r" align="min" overlay="0">
+    <cx:legend pos="b" align="ctr" overlay="0">
       <cx:txPr>
         <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" baseline="0">
+            <a:defRPr sz="2500" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2500" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000">
                 <a:lumMod val="65000"/>
@@ -352,6 +529,198 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Winking</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Double-blinking</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="50"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>NASA-TLX</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2500" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -395,6 +764,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -910,84 +1359,1260 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>153517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>471839</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="图表 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B0AA0B-FE6E-4025-ACDC-BB3733207621}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8577262" y="1995487"/>
-              <a:ext cx="5080000" cy="2797175"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5BAC60-69B5-0066-EAC3-7CA250B92CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8485151" y="2163187"/>
+          <a:ext cx="17693721" cy="5156666"/>
+          <a:chOff x="9542462" y="0"/>
+          <a:chExt cx="17887244" cy="5389191"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B0AA0B-FE6E-4025-ACDC-BB3733207621}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="9542462" y="0"/>
+              <a:ext cx="5511487" cy="5389191"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9542462" y="0"/>
+                <a:ext cx="5511487" cy="5389191"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:prstClr val="green"/>
+                <a:prstClr val="white"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="3" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4369BC-A98A-FE4E-AD44-384F17638F0B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="15728147" y="0"/>
+              <a:ext cx="5514622" cy="5389191"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15728147" y="0"/>
+                <a:ext cx="5514622" cy="5389191"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="4" name="图表 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A703AEF0-A5AE-9447-883B-205B693BF09E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="21915083" y="0"/>
+              <a:ext cx="5514623" cy="5389191"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="21915083" y="0"/>
+                <a:ext cx="5514623" cy="5389191"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1313,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A283F-8D03-449C-8A2C-91AD748A9256}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1325,78 +2950,181 @@
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>187.62100000000001</v>
+      </c>
+      <c r="C2">
+        <v>105.83199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>80.122</v>
+      </c>
+      <c r="C3">
+        <v>113.47499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>161.298</v>
+      </c>
+      <c r="C4">
+        <v>92.102999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>89.171999999999997</v>
+      </c>
+      <c r="C5">
+        <v>125.764</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>90.816999999999993</v>
+      </c>
+      <c r="C6">
+        <v>109.675</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>80.012</v>
+      </c>
+      <c r="C7">
+        <v>98.122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>187621</v>
-      </c>
-      <c r="C2">
-        <v>105832</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>80122</v>
-      </c>
-      <c r="C3">
-        <v>113475</v>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>0.43</v>
+      </c>
+      <c r="C13">
+        <v>0.79</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>161298</v>
-      </c>
-      <c r="C4">
-        <v>92103</v>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>0.87</v>
+      </c>
+      <c r="C14">
+        <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>89172</v>
-      </c>
-      <c r="C5">
-        <v>125764</v>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>0.39</v>
+      </c>
+      <c r="C15">
+        <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>90817</v>
-      </c>
-      <c r="C6">
-        <v>109675</v>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>0.91</v>
+      </c>
+      <c r="C16">
+        <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>80012</v>
-      </c>
-      <c r="C7">
-        <v>98122</v>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>0.81</v>
+      </c>
+      <c r="C17">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>0.49</v>
+      </c>
+      <c r="C18">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
+++ b/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413A9E6-ADA7-A74C-9845-4B03EDFB76CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BADE10-008C-B845-9555-374CE4223396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,31 @@
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$24:$A$29</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$24:$A$29</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$24:$B$29</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$24:$C$29</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$13:$A$18</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$24:$A$29</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$13:$B$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$24:$B$29</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$24:$B$29</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$13:$A$18</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$13:$B$18</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$13:$C$18</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$24:$A$29</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet!$B$24:$B$29</definedName>
@@ -146,18 +151,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -167,7 +172,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Winking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -179,7 +184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Double-blinking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -355,18 +360,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -376,7 +381,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Winking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -388,7 +393,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>Double-blinking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -725,122 +730,20 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2399,8 +2302,8 @@
       <xdr:rowOff>153517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>471839</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>258769</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
@@ -2418,9 +2321,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8485151" y="2163187"/>
-          <a:ext cx="17693721" cy="5156666"/>
+          <a:ext cx="16810761" cy="5156666"/>
           <a:chOff x="9542462" y="0"/>
-          <a:chExt cx="17887244" cy="5389191"/>
+          <a:chExt cx="16994627" cy="5389191"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2438,7 +2341,7 @@
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="9542462" y="0"/>
-              <a:ext cx="5511487" cy="5389191"/>
+              <a:ext cx="4622006" cy="5389191"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -2458,7 +2361,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="9542462" y="0"/>
-                <a:ext cx="5511487" cy="5389191"/>
+                <a:ext cx="4622006" cy="5389191"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2501,7 +2404,7 @@
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="15728147" y="0"/>
-              <a:ext cx="5514622" cy="5389191"/>
+              <a:ext cx="4622006" cy="5389191"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -2521,7 +2424,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="15728147" y="0"/>
-                <a:ext cx="5514622" cy="5389191"/>
+                <a:ext cx="4622006" cy="5389191"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2564,7 +2467,7 @@
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="21915083" y="0"/>
-              <a:ext cx="5514623" cy="5389191"/>
+              <a:ext cx="4622006" cy="5389191"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
@@ -2584,7 +2487,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="21915083" y="0"/>
-                <a:ext cx="5514623" cy="5389191"/>
+                <a:ext cx="4622006" cy="5389191"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2940,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A283F-8D03-449C-8A2C-91AD748A9256}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>

--- a/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
+++ b/PAPERWORK/Data Processing Excel/pilot1completion_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BADE10-008C-B845-9555-374CE4223396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FDF67-5148-564D-8778-0F2A1E818CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,27 +18,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$24:$A$29</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$A$13:$A$18</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$24:$B$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$B$13:$B$18</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$24:$C$29</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$A$24:$A$29</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$B$24:$B$29</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$C$13:$C$18</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$13:$B$18</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$A$24:$A$29</definedName>
@@ -151,18 +136,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -172,7 +157,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Winking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -184,7 +169,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Double-blinking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -360,18 +345,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -381,7 +366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{17913E15-391A-1F42-A863-1BA9E2481FAC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>Winking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -393,7 +378,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79372F6-4DCA-6B4F-ADF0-51E3CBE722C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Double-blinking</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2304,8 +2289,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>258769</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125605</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2321,7 +2306,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8485151" y="2163187"/>
-          <a:ext cx="16810761" cy="5156666"/>
+          <a:ext cx="16810761" cy="3154066"/>
           <a:chOff x="9542462" y="0"/>
           <a:chExt cx="16994627" cy="5389191"/>
         </a:xfrm>
@@ -2844,7 +2829,7 @@
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
